--- a/Lab2/Lab2_data/Lab2_data/Tables/PopulationMeanCenterActual.xlsx
+++ b/Lab2/Lab2_data/Lab2_data/Tables/PopulationMeanCenterActual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lostk\OneDrive\Desktop\Working Directory\Schule\Lab2\Lab2_data\Lab2_data\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3712EF4-595C-4D5F-B600-4859E3FAD557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C03D6E0-6F37-40EB-9DDF-8AF6B749A50A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FA92CE2-E2E7-4FE0-8200-62B2B9838926}"/>
+    <workbookView xWindow="11745" yWindow="2100" windowWidth="18660" windowHeight="11775" xr2:uid="{7FA92CE2-E2E7-4FE0-8200-62B2B9838926}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
